--- a/console/Elastic-Compute/Virtual-Machine/components/select/vpcSelect.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/select/vpcSelect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No available VPC in current region, please create new virtual private cloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>default_subnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Default VPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No_Usable_Vpc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,7 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No VPC is available for now</t>
+    <t>No available VPC in current region, please create VPC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default VPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,29 +517,29 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
